--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pvk/Documents/GitHub/FEL3D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47634616-F82A-5048-8422-AD96C4BCA43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEAE94-48B9-544C-8651-1982C668C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Z</t>
   </si>
@@ -690,7 +690,7 @@
   <dimension ref="A1:S421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13"/>
@@ -766,7 +766,7 @@
         <v>236</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -799,9 +799,7 @@
         <v>15</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
         <v>15</v>
       </c>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pvk/Documents/GitHub/FEL3D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEAE94-48B9-544C-8651-1982C668C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5497249F-5306-0F4B-81A0-295EDD71741D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Z</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>0.055</t>
+  </si>
+  <si>
+    <t>Additional data</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -687,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S421"/>
+  <dimension ref="A1:T421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13"/>
@@ -699,7 +705,7 @@
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,8 +763,11 @@
       <c r="S1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="8">
         <v>92</v>
       </c>
@@ -766,7 +775,7 @@
         <v>236</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>
@@ -803,8 +812,11 @@
       <c r="S2" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="D3" s="5"/>
@@ -820,7 +832,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="D4" s="5"/>
@@ -836,7 +848,7 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="D5" s="5"/>
@@ -852,7 +864,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="D6" s="5"/>
@@ -868,7 +880,7 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="D7" s="5"/>
@@ -884,7 +896,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -904,7 +916,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -925,23 +937,23 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="D13" s="5"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4">

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pvk/Documents/GitHub/FEL3D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5497249F-5306-0F4B-81A0-295EDD71741D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10213E-CEE0-C141-8B0D-A5CA628BED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:T421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13"/>
@@ -775,7 +775,7 @@
         <v>236</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="5">
         <v>0</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pvk/Documents/GitHub/FEL3D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10213E-CEE0-C141-8B0D-A5CA628BED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D7E3F9-4220-F743-BD73-783E7C94B974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30320" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Shell corr</t>
   </si>
   <si>
-    <t>T_star?</t>
-  </si>
-  <si>
     <t>R_neck</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Near gs?</t>
   </si>
   <si>
-    <t>spont</t>
-  </si>
-  <si>
     <t>0.11</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>Additional data</t>
+  </si>
+  <si>
+    <t>T_star</t>
+  </si>
+  <si>
+    <t>from file</t>
   </si>
   <si>
     <t>p</t>
@@ -119,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -222,6 +222,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -323,7 +329,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -340,6 +346,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -695,124 +713,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13"/>
   <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="18" max="19" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1">
+      <c r="A2" s="11">
+        <v>92</v>
+      </c>
+      <c r="B2" s="11">
+        <v>236</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="F2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="8">
-        <v>92</v>
-      </c>
-      <c r="B2" s="8">
-        <v>236</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="K2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>25</v>
       </c>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pvk/Documents/GitHub/FEL3D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D7E3F9-4220-F743-BD73-783E7C94B974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6F0B3-DDEA-5541-8579-63C8EBA6B1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30320" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
   <dimension ref="A1:T421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13"/>
@@ -809,10 +809,10 @@
         <v>236</v>
       </c>
       <c r="C2" s="12">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1467,7 +1467,7 @@
     <row r="172" spans="4:15" ht="13.5" customHeight="1">
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="4:15" ht="15">
+    <row r="173" spans="4:15" ht="14">
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pvk/Documents/GitHub/FEL3D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6F0B3-DDEA-5541-8579-63C8EBA6B1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD26B455-BC82-DD46-8E29-B4B81188E215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30320" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
   <dimension ref="A1:T421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13"/>
@@ -809,7 +809,7 @@
         <v>236</v>
       </c>
       <c r="C2" s="12">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D2" s="13">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     <row r="172" spans="4:15" ht="13.5" customHeight="1">
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="4:15" ht="14">
+    <row r="173" spans="4:15" ht="15">
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
